--- a/5 改版后自动化网页提交/5.3/京瓷撰写情况.xlsx
+++ b/5 改版后自动化网页提交/5.3/京瓷撰写情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第二次提交" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12536" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12542" uniqueCount="1157">
   <si>
     <t>是否通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14611,9 +14611,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TG035QVLQAANN</t>
-  </si>
-  <si>
     <t>TCG035QVLPDANN</t>
   </si>
   <si>
@@ -14944,6 +14941,98 @@
   </si>
   <si>
     <t>TCG035QVLPDANN-GN50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG035QVLQAANN-GN00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG035QVLQAANN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG070WVLPAANN-AN50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.31刘阳提交9篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101刘阳提交13篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102刘阳提交10篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG035QVLPAANN-AN00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-51405GNB-LW-ANN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-56015GNB-LW-AFN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG075VGLDA-H50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG104SVLPEANN-AN30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG121SVLPBAFA-AA00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMC-16202NY-LY-BJE-BLN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMC-20261NYJ-LY-CKE-CNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=C-51505NFQJ-LW-ALN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-51505NFQJ-LW-ALN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-51505NFJ-SLW-AQN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-55472GNBJ-LW-AIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-51320GNB-LW-AEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-51850NFJ-SLW-ADN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-51849NFJ-SLW-ADN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0121刘阳提交10篇，1篇EOL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -58634,10 +58723,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE140"/>
+  <dimension ref="A1:AE146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -58684,13 +58773,13 @@
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>1129</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>1130</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>799</v>
@@ -58773,10 +58862,10 @@
         <v>822</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>651</v>
+        <v>1134</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>1025</v>
+        <v>1135</v>
       </c>
       <c r="F2" s="35">
         <v>0</v>
@@ -58858,16 +58947,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>822</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F3" s="35">
         <v>1</v>
@@ -58955,10 +59044,10 @@
         <v>822</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>656</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F4" s="35">
         <v>2</v>
@@ -59047,7 +59136,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F5" s="35">
         <v>3</v>
@@ -59140,7 +59229,7 @@
         <v>667</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F6" s="35">
         <v>4</v>
@@ -59231,7 +59320,7 @@
         <v>663</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F7" s="35">
         <v>4</v>
@@ -59322,7 +59411,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F8" s="35">
         <v>5</v>
@@ -59415,7 +59504,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F9" s="35">
         <v>5</v>
@@ -59497,7 +59586,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>822</v>
@@ -59506,7 +59595,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F10" s="35">
         <v>6</v>
@@ -59595,7 +59684,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F11" s="35">
         <v>7</v>
@@ -59682,7 +59771,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F12" s="35">
         <v>7</v>
@@ -59767,7 +59856,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F13" s="35">
         <v>8</v>
@@ -59858,7 +59947,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F14" s="35">
         <v>9</v>
@@ -59947,7 +60036,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F15" s="35">
         <v>10</v>
@@ -60023,7 +60112,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>822</v>
@@ -60032,7 +60121,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F16" s="35">
         <v>11</v>
@@ -60123,7 +60212,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F17" s="35">
         <v>12</v>
@@ -60214,7 +60303,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F18" s="35">
         <v>12</v>
@@ -60309,7 +60398,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F19" s="35">
         <v>13</v>
@@ -60402,7 +60491,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F20" s="35">
         <v>14</v>
@@ -60497,7 +60586,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F21" s="35">
         <v>14</v>
@@ -60592,7 +60681,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F22" s="35">
         <v>15</v>
@@ -60687,7 +60776,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F23" s="35">
         <v>16</v>
@@ -60769,7 +60858,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>822</v>
@@ -60778,7 +60867,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F24" s="35">
         <v>17</v>
@@ -60867,7 +60956,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F25" s="35">
         <v>18</v>
@@ -60962,7 +61051,7 @@
         <v>31</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F26" s="35">
         <v>18</v>
@@ -61057,7 +61146,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F27" s="35">
         <v>18</v>
@@ -61152,7 +61241,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F28" s="35">
         <v>19</v>
@@ -61247,7 +61336,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F29" s="35">
         <v>20</v>
@@ -61334,7 +61423,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F30" s="35">
         <v>21</v>
@@ -61399,7 +61488,7 @@
         <v>305</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AC30" s="3" t="s">
         <v>891</v>
@@ -61425,7 +61514,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F31" s="35">
         <v>22</v>
@@ -61490,7 +61579,7 @@
         <v>260</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>891</v>
@@ -61516,7 +61605,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F32" s="35">
         <v>23</v>
@@ -61598,7 +61687,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>822</v>
@@ -61607,7 +61696,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F33" s="35">
         <v>24</v>
@@ -61696,7 +61785,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F34" s="35">
         <v>24</v>
@@ -61783,7 +61872,7 @@
         <v>40</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F35" s="35">
         <v>25</v>
@@ -61874,7 +61963,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F36" s="35">
         <v>26</v>
@@ -61963,7 +62052,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F37" s="35">
         <v>26</v>
@@ -62054,7 +62143,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F38" s="35">
         <v>26</v>
@@ -62147,7 +62236,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F39" s="35">
         <v>26</v>
@@ -62236,7 +62325,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F40" s="35">
         <v>27</v>
@@ -62329,7 +62418,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F41" s="35">
         <v>27</v>
@@ -62413,7 +62502,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>822</v>
@@ -62422,7 +62511,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F42" s="36">
         <v>28</v>
@@ -62500,16 +62589,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>822</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>1136</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F43" s="35">
         <v>29</v>
@@ -62598,7 +62687,7 @@
         <v>49</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F44" s="35">
         <v>29</v>
@@ -62687,7 +62776,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F45" s="35">
         <v>30</v>
@@ -62780,7 +62869,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F46" s="35">
         <v>30</v>
@@ -62873,7 +62962,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F47" s="35">
         <v>31</v>
@@ -62964,7 +63053,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F48" s="35">
         <v>31</v>
@@ -63046,7 +63135,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>822</v>
@@ -63055,7 +63144,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F49" s="35">
         <v>32</v>
@@ -63142,7 +63231,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F50" s="35">
         <v>33</v>
@@ -63220,16 +63309,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>822</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>56</v>
+        <v>1143</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F51" s="35">
         <v>34</v>
@@ -63309,7 +63398,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>822</v>
@@ -63318,7 +63407,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F52" s="36">
         <v>35</v>
@@ -63398,7 +63487,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>822</v>
@@ -63407,7 +63496,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F53" s="35">
         <v>36</v>
@@ -63496,7 +63585,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F54" s="35">
         <v>36</v>
@@ -63585,7 +63674,7 @@
         <v>62</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F55" s="35">
         <v>37</v>
@@ -63676,7 +63765,7 @@
         <v>63</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F56" s="35">
         <v>37</v>
@@ -63763,7 +63852,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F57" s="35">
         <v>37</v>
@@ -63854,7 +63943,7 @@
         <v>65</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F58" s="35">
         <v>38</v>
@@ -63945,7 +64034,7 @@
         <v>66</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F59" s="35">
         <v>39</v>
@@ -64036,7 +64125,7 @@
         <v>67</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F60" s="35">
         <v>40</v>
@@ -64127,7 +64216,7 @@
         <v>68</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F61" s="35">
         <v>40</v>
@@ -64216,7 +64305,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F62" s="35">
         <v>41</v>
@@ -64309,7 +64398,7 @@
         <v>70</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F63" s="35">
         <v>42</v>
@@ -64400,7 +64489,7 @@
         <v>71</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F64" s="35">
         <v>42</v>
@@ -64482,7 +64571,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>822</v>
@@ -64491,7 +64580,7 @@
         <v>72</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F65" s="35">
         <v>43</v>
@@ -64580,7 +64669,7 @@
         <v>73</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F66" s="35">
         <v>44</v>
@@ -64665,7 +64754,7 @@
         <v>74</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F67" s="35">
         <v>45</v>
@@ -64754,7 +64843,7 @@
         <v>75</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F68" s="35">
         <v>46</v>
@@ -64845,7 +64934,7 @@
         <v>76</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F69" s="35">
         <v>47</v>
@@ -64938,7 +65027,7 @@
         <v>77</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F70" s="35">
         <v>48</v>
@@ -65027,7 +65116,7 @@
         <v>78</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F71" s="35">
         <v>48</v>
@@ -65118,7 +65207,7 @@
         <v>79</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F72" s="35">
         <v>48</v>
@@ -65198,7 +65287,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>823</v>
@@ -65207,7 +65296,7 @@
         <v>80</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F73" s="35">
         <v>49</v>
@@ -65287,7 +65376,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>822</v>
@@ -65296,7 +65385,7 @@
         <v>81</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F74" s="35">
         <v>50</v>
@@ -65385,7 +65474,7 @@
         <v>82</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F75" s="35">
         <v>50</v>
@@ -65476,7 +65565,7 @@
         <v>83</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F76" s="35">
         <v>51</v>
@@ -65569,7 +65658,7 @@
         <v>84</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F77" s="35">
         <v>51</v>
@@ -65658,7 +65747,7 @@
         <v>85</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F78" s="35">
         <v>52</v>
@@ -65751,7 +65840,7 @@
         <v>86</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F79" s="35">
         <v>52</v>
@@ -65842,7 +65931,7 @@
         <v>87</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F80" s="35">
         <v>53</v>
@@ -65933,7 +66022,7 @@
         <v>88</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F81" s="35">
         <v>54</v>
@@ -66015,16 +66104,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>822</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>89</v>
+        <v>1144</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F82" s="35">
         <v>55</v>
@@ -66104,7 +66193,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>822</v>
@@ -66113,7 +66202,7 @@
         <v>90</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F83" s="35">
         <v>56</v>
@@ -66202,7 +66291,7 @@
         <v>91</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F84" s="35">
         <v>57</v>
@@ -66295,7 +66384,7 @@
         <v>92</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F85" s="35">
         <v>58</v>
@@ -66384,7 +66473,7 @@
         <v>93</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F86" s="35">
         <v>58</v>
@@ -66475,7 +66564,7 @@
         <v>94</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F87" s="35">
         <v>59</v>
@@ -66564,7 +66653,7 @@
         <v>95</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F88" s="35">
         <v>60</v>
@@ -66651,7 +66740,7 @@
         <v>96</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F89" s="35">
         <v>61</v>
@@ -66742,7 +66831,7 @@
         <v>97</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F90" s="35">
         <v>62</v>
@@ -66833,7 +66922,7 @@
         <v>98</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F91" s="35">
         <v>63</v>
@@ -66920,7 +67009,7 @@
         <v>99</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F92" s="35">
         <v>64</v>
@@ -67002,7 +67091,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>822</v>
@@ -67011,7 +67100,7 @@
         <v>100</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F93" s="35">
         <v>65</v>
@@ -67091,16 +67180,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>822</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>101</v>
+        <v>1145</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F94" s="35">
         <v>66</v>
@@ -67182,7 +67271,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>822</v>
@@ -67191,7 +67280,7 @@
         <v>102</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F95" s="35">
         <v>67</v>
@@ -67280,7 +67369,7 @@
         <v>103</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F96" s="35">
         <v>67</v>
@@ -67369,7 +67458,7 @@
         <v>104</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F97" s="35">
         <v>68</v>
@@ -67462,7 +67551,7 @@
         <v>105</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F98" s="35">
         <v>69</v>
@@ -67553,7 +67642,7 @@
         <v>106</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F99" s="35">
         <v>69</v>
@@ -67644,7 +67733,7 @@
         <v>107</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F100" s="35">
         <v>70</v>
@@ -67725,7 +67814,7 @@
         <v>108</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F101" s="35">
         <v>71</v>
@@ -67800,7 +67889,7 @@
         <v>109</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F102" s="35">
         <v>72</v>
@@ -67877,7 +67966,7 @@
         <v>110</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F103" s="35">
         <v>73</v>
@@ -67952,7 +68041,7 @@
         <v>111</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F104" s="35">
         <v>74</v>
@@ -68027,7 +68116,7 @@
         <v>112</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F105" s="35">
         <v>75</v>
@@ -68092,7 +68181,7 @@
         <v>113</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F106" s="35">
         <v>76</v>
@@ -68167,7 +68256,7 @@
         <v>114</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F107" s="35">
         <v>77</v>
@@ -68234,7 +68323,7 @@
         <v>115</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F108" s="36">
         <v>78</v>
@@ -68323,7 +68412,7 @@
         <v>116</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F109" s="35">
         <v>79</v>
@@ -68403,16 +68492,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>824</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>117</v>
+        <v>1146</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F110" s="35">
         <v>80</v>
@@ -68493,17 +68582,17 @@
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="4">
-        <v>0</v>
+      <c r="B111" s="33" t="s">
+        <v>1148</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>824</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>118</v>
+        <v>1147</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F111" s="36">
         <v>81</v>
@@ -68582,8 +68671,8 @@
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="4">
-        <v>0</v>
+      <c r="B112" s="33" t="s">
+        <v>1148</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>824</v>
@@ -68592,7 +68681,7 @@
         <v>119</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F112" s="35">
         <v>82</v>
@@ -68672,16 +68761,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>824</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>120</v>
+        <v>1150</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F113" s="36">
         <v>83</v>
@@ -68734,7 +68823,7 @@
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="4" t="s">
-        <v>260</v>
+        <v>1149</v>
       </c>
       <c r="Y113" s="31" t="s">
         <v>571</v>
@@ -68772,7 +68861,7 @@
         <v>121</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F114" s="36">
         <v>84</v>
@@ -68861,7 +68950,7 @@
         <v>122</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F115" s="36">
         <v>85</v>
@@ -68943,16 +69032,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>824</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>123</v>
+        <v>1151</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F116" s="35">
         <v>86</v>
@@ -69041,7 +69130,7 @@
         <v>124</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F117" s="35">
         <v>87</v>
@@ -69128,7 +69217,7 @@
         <v>126</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F118" s="35">
         <v>88</v>
@@ -69219,7 +69308,7 @@
         <v>127</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F119" s="35">
         <v>89</v>
@@ -69297,16 +69386,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>824</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>128</v>
+        <v>1154</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F120" s="35">
         <v>90</v>
@@ -69388,16 +69477,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>129</v>
+        <v>1155</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F121" s="35">
         <v>91</v>
@@ -69484,7 +69573,7 @@
         <v>130</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F122" s="35">
         <v>92</v>
@@ -69573,7 +69662,7 @@
         <v>131</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F123" s="35">
         <v>93</v>
@@ -69653,7 +69742,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>825</v>
@@ -69662,7 +69751,7 @@
         <v>132</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F124" s="35">
         <v>94</v>
@@ -69742,16 +69831,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>825</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>133</v>
+        <v>1152</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F125" s="35">
         <v>95</v>
@@ -69838,7 +69927,7 @@
         <v>134</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F126" s="35">
         <v>96</v>
@@ -69929,7 +70018,7 @@
         <v>135</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F127" s="35">
         <v>97</v>
@@ -70013,16 +70102,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>825</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>136</v>
+        <v>1153</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F128" s="35">
         <v>98</v>
@@ -70102,7 +70191,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>825</v>
@@ -70111,7 +70200,7 @@
         <v>137</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F129" s="35">
         <v>99</v>
@@ -70198,7 +70287,7 @@
         <v>138</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F130" s="35">
         <v>100</v>
@@ -70276,7 +70365,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>825</v>
@@ -70285,7 +70374,7 @@
         <v>139</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F131" s="35">
         <v>101</v>
@@ -70365,16 +70454,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>825</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>140</v>
+        <v>1141</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F132" s="35">
         <v>102</v>
@@ -70456,16 +70545,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>141</v>
+        <v>1142</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F133" s="35">
         <v>103</v>
@@ -70566,8 +70655,27 @@
         <v>1024</v>
       </c>
     </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1156</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE138"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5 改版后自动化网页提交/5.3/京瓷撰写情况.xlsx
+++ b/5 改版后自动化网页提交/5.3/京瓷撰写情况.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" firstSheet="2" activeTab="7"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14859" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14851" uniqueCount="1196">
   <si>
     <t>是否通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -15206,6 +15206,10 @@
   </si>
   <si>
     <t>TCG057VGLAAANN-GN20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG043WQLBAANN-GN00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -70869,8 +70873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -71324,11 +71328,11 @@
       <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>1180</v>
+      <c r="B7" s="33">
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>663</v>
+        <v>1195</v>
       </c>
       <c r="D7" s="35">
         <v>4</v>
@@ -73355,8 +73359,8 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>1180</v>
+      <c r="B36" s="33">
+        <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>41</v>
@@ -73907,8 +73911,8 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>1180</v>
+      <c r="B44" s="33">
+        <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>49</v>
@@ -74662,8 +74666,8 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>1180</v>
+      <c r="B55" s="33">
+        <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>62</v>
@@ -75084,8 +75088,8 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>1180</v>
+      <c r="B61" s="33">
+        <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>68</v>
@@ -76202,8 +76206,8 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="33" t="s">
-        <v>1180</v>
+      <c r="B77" s="33">
+        <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>84</v>
@@ -76340,8 +76344,8 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="33" t="s">
-        <v>1180</v>
+      <c r="B79" s="33">
+        <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>86</v>
@@ -76758,8 +76762,8 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="33" t="s">
-        <v>1180</v>
+      <c r="B85" s="33">
+        <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1171</v>

--- a/5 改版后自动化网页提交/5.3/京瓷撰写情况.xlsx
+++ b/5 改版后自动化网页提交/5.3/京瓷撰写情况.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14851" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14842" uniqueCount="1195">
   <si>
     <t>是否通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -15146,10 +15146,6 @@
   </si>
   <si>
     <t>TCG101WXLPAANN-AN20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相似</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -70873,8 +70869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -71332,7 +71328,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D7" s="35">
         <v>4</v>
@@ -71470,8 +71466,8 @@
       <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>1180</v>
+      <c r="B9" s="33">
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -71614,7 +71610,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D11" s="35">
         <v>7</v>
@@ -71750,7 +71746,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D13" s="35">
         <v>8</v>
@@ -72241,7 +72237,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D20" s="35">
         <v>14</v>
@@ -72588,8 +72584,8 @@
       <c r="A25" s="34">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>1180</v>
+      <c r="B25" s="33">
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
@@ -72943,7 +72939,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D30" s="35">
         <v>21</v>
@@ -73221,8 +73217,8 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>1180</v>
+      <c r="B34" s="33">
+        <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>39</v>
@@ -73568,8 +73564,8 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>1180</v>
+      <c r="B39" s="33">
+        <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>44</v>
@@ -73971,7 +73967,7 @@
         <v>740</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
@@ -74049,8 +74045,8 @@
       <c r="A46" s="34">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>1180</v>
+      <c r="B46" s="33">
+        <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>51</v>
@@ -74599,8 +74595,8 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>1180</v>
+      <c r="B54" s="33">
+        <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>61</v>
@@ -74806,8 +74802,8 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>1180</v>
+      <c r="B57" s="33">
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>64</v>
@@ -76064,8 +76060,8 @@
       <c r="A75" s="34">
         <v>74</v>
       </c>
-      <c r="B75" s="33" t="s">
-        <v>1180</v>
+      <c r="B75" s="33">
+        <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>82</v>
@@ -77529,8 +77525,8 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="33" t="s">
-        <v>1180</v>
+      <c r="B96" s="33">
+        <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>103</v>
@@ -78763,7 +78759,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D114" s="36">
         <v>84</v>
@@ -78807,7 +78803,7 @@
         <v>769</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="T114" s="25">
         <v>3.3340277777777776</v>
@@ -78830,7 +78826,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D115" s="36">
         <v>85</v>
@@ -78966,7 +78962,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D117" s="35">
         <v>87</v>
@@ -78988,7 +78984,7 @@
       </c>
       <c r="J117" s="18"/>
       <c r="K117" s="18" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L117" s="18"/>
       <c r="M117" s="18" t="s">
@@ -79033,7 +79029,7 @@
         <v>1160</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D118" s="35">
         <v>88</v>
@@ -79303,7 +79299,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D122" s="35">
         <v>92</v>
@@ -79370,7 +79366,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D123" s="35">
         <v>93</v>
@@ -79845,7 +79841,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D130" s="35">
         <v>100</v>
